--- a/output/20221109/tables/betas_hh_noeffort.xlsx
+++ b/output/20221109/tables/betas_hh_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="17">
   <si>
     <t>Outcome</t>
   </si>
@@ -164,10 +164,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="1">
-        <v>0.15926669538021088</v>
+        <v>0.16301143169403076</v>
       </c>
       <c r="I2" s="1">
-        <v>0.53374010324478149</v>
+        <v>0.5299953818321228</v>
       </c>
     </row>
     <row r="3">
@@ -193,10 +193,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="1">
-        <v>0.16713878512382507</v>
+        <v>0.17079822719097137</v>
       </c>
       <c r="I3" s="1">
-        <v>0.53308320045471191</v>
+        <v>0.52942371368408203</v>
       </c>
     </row>
     <row r="4">
@@ -222,10 +222,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="1">
-        <v>0.2019132524728775</v>
+        <v>0.20533210039138794</v>
       </c>
       <c r="I4" s="1">
-        <v>0.54379844665527344</v>
+        <v>0.54037958383560181</v>
       </c>
     </row>
     <row r="5">
@@ -251,10 +251,10 @@
         <v>14</v>
       </c>
       <c r="H5" s="1">
-        <v>0.85755085945129395</v>
+        <v>0.85838252305984497</v>
       </c>
       <c r="I5" s="1">
-        <v>0.94071602821350098</v>
+        <v>0.93988436460494995</v>
       </c>
     </row>
     <row r="6">
@@ -280,10 +280,10 @@
         <v>14</v>
       </c>
       <c r="H6" s="1">
-        <v>0.85761797428131104</v>
+        <v>0.85841119289398193</v>
       </c>
       <c r="I6" s="1">
-        <v>0.9369359016418457</v>
+        <v>0.9361426830291748</v>
       </c>
     </row>
     <row r="7">
@@ -309,10 +309,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="1">
-        <v>0.85722023248672485</v>
+        <v>0.85799229145050049</v>
       </c>
       <c r="I7" s="1">
-        <v>0.93442505598068237</v>
+        <v>0.93365299701690674</v>
       </c>
     </row>
     <row r="8">
@@ -338,10 +338,10 @@
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <v>0.19173914194107056</v>
+        <v>0.19332195818424225</v>
       </c>
       <c r="I8" s="1">
-        <v>0.35002052783966064</v>
+        <v>0.34843769669532776</v>
       </c>
     </row>
     <row r="9">
@@ -367,10 +367,10 @@
         <v>14</v>
       </c>
       <c r="H9" s="1">
-        <v>0.20268824696540833</v>
+        <v>0.20416003465652466</v>
       </c>
       <c r="I9" s="1">
-        <v>0.3498663604259491</v>
+        <v>0.34839457273483276</v>
       </c>
     </row>
     <row r="10">
@@ -396,10 +396,10 @@
         <v>14</v>
       </c>
       <c r="H10" s="1">
-        <v>0.20405164361000061</v>
+        <v>0.20557700097560883</v>
       </c>
       <c r="I10" s="1">
-        <v>0.35658672451972961</v>
+        <v>0.35506138205528259</v>
       </c>
     </row>
     <row r="11">
@@ -425,10 +425,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="1">
-        <v>0.13328923285007477</v>
+        <v>0.13654132187366486</v>
       </c>
       <c r="I11" s="1">
-        <v>0.45849829912185669</v>
+        <v>0.45524618029594421</v>
       </c>
     </row>
     <row r="12">
@@ -454,10 +454,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="1">
-        <v>0.14558649063110352</v>
+        <v>0.14872801303863525</v>
       </c>
       <c r="I12" s="1">
-        <v>0.45973938703536987</v>
+        <v>0.45659786462783813</v>
       </c>
     </row>
     <row r="13">
@@ -483,10 +483,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="1">
-        <v>0.18108633160591125</v>
+        <v>0.18394468724727631</v>
       </c>
       <c r="I13" s="1">
-        <v>0.4669213593006134</v>
+        <v>0.46406301856040955</v>
       </c>
     </row>
     <row r="14">
@@ -512,10 +512,10 @@
         <v>14</v>
       </c>
       <c r="H14" s="1">
-        <v>-0.0079622939229011536</v>
+        <v>-0.0065314383246004581</v>
       </c>
       <c r="I14" s="1">
-        <v>0.13512325286865234</v>
+        <v>0.13369239866733551</v>
       </c>
     </row>
     <row r="15">
@@ -541,10 +541,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="1">
-        <v>-0.017104066908359528</v>
+        <v>-0.015694240108132362</v>
       </c>
       <c r="I15" s="1">
-        <v>0.12387866526842117</v>
+        <v>0.12246883660554886</v>
       </c>
     </row>
     <row r="16">
@@ -570,10 +570,10 @@
         <v>14</v>
       </c>
       <c r="H16" s="1">
-        <v>-0.013426691293716431</v>
+        <v>-0.012039145454764366</v>
       </c>
       <c r="I16" s="1">
-        <v>0.12532787024974823</v>
+        <v>0.12394032627344131</v>
       </c>
     </row>
   </sheetData>

--- a/output/20221109/tables/betas_hh_noeffort.xlsx
+++ b/output/20221109/tables/betas_hh_noeffort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="17">
   <si>
     <t>Outcome</t>
   </si>
